--- a/data/trans_dic/P56$auxiliar-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P56$auxiliar-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -734,12 +735,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,29</t>
+          <t>0,0; 41,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,07</t>
+          <t>0,0; 64,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,17 +750,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,42; 55,69</t>
+          <t>14,74; 56,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,67</t>
+          <t>0,0; 33,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,54; 68,85</t>
+          <t>14,63; 69,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,24 +770,24 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,91; 42,14</t>
+          <t>11,27; 42,18</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,74; 25,03</t>
+          <t>2,66; 27,27</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,65; 54,78</t>
+          <t>12,96; 54,65</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -879,7 +880,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,91; 47,54</t>
+          <t>6,66; 48,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,17 +890,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,06; 32,57</t>
+          <t>8,78; 35,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,04</t>
+          <t>0,0; 31,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,04; 33,51</t>
+          <t>14,28; 33,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,24 +910,24 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,7; 26,22</t>
+          <t>5,62; 25,12</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,86</t>
+          <t>0,0; 23,05</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,95; 30,83</t>
+          <t>14,77; 31,66</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1019,7 +1020,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,5; 50,03</t>
+          <t>17,71; 51,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,7 +1030,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,25; 66,82</t>
+          <t>17,25; 61,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,7 +1040,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,85; 42,23</t>
+          <t>19,7; 42,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,7 +1050,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,52; 47,34</t>
+          <t>11,81; 46,56</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>21,93; 41,04</t>
+          <t>22,65; 41,08</t>
         </is>
       </c>
     </row>
@@ -1154,52 +1155,52 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,01</t>
+          <t>0,0; 46,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,55; 52,84</t>
+          <t>6,5; 50,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,78; 69,33</t>
+          <t>9,76; 70,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,51; 37,91</t>
+          <t>4,5; 34,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,02</t>
+          <t>0,0; 24,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>26,23; 54,18</t>
+          <t>26,97; 53,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,91; 55,36</t>
+          <t>7,89; 49,91</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,24; 27,25</t>
+          <t>3,27; 27,86</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,37; 22,63</t>
+          <t>2,38; 24,49</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>24,63; 47,28</t>
+          <t>23,98; 47,94</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1290,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,32; 84,6</t>
+          <t>16,69; 84,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,7 +1300,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19,12; 66,1</t>
+          <t>18,93; 66,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,17 +1310,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,11; 48,1</t>
+          <t>10,38; 52,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,11</t>
+          <t>0,0; 48,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,13; 50,7</t>
+          <t>23,49; 52,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,24 +1330,24 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16,37; 53,64</t>
+          <t>16,76; 54,87</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,77</t>
+          <t>0,0; 50,87</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>25,08; 50,11</t>
+          <t>25,58; 51,21</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1429,7 +1430,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,1; 70,45</t>
+          <t>10,07; 70,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,7 +1440,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,84; 26,72</t>
+          <t>4,79; 27,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1449,7 +1450,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,16; 47,47</t>
+          <t>10,26; 52,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,7 +1460,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,51; 44,81</t>
+          <t>25,29; 44,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1469,7 +1470,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>17,1; 48,61</t>
+          <t>16,79; 48,66</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,14 +1480,14 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>20,19; 36,31</t>
+          <t>19,74; 35,01</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1569,7 +1570,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,63</t>
+          <t>0,0; 35,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,7 +1580,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,05; 57,16</t>
+          <t>6,97; 55,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1589,17 +1590,17 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,58; 31,31</t>
+          <t>5,26; 29,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,81; 25,46</t>
+          <t>2,84; 25,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16,61; 39,13</t>
+          <t>17,32; 39,95</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1609,17 +1610,17 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,46; 24,26</t>
+          <t>5,77; 25,02</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,9; 17,05</t>
+          <t>1,94; 17,73</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,61; 38,42</t>
+          <t>19,14; 37,28</t>
         </is>
       </c>
     </row>
@@ -1714,52 +1715,52 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,41</t>
+          <t>0,0; 45,1</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,88; 25,1</t>
+          <t>2,9; 25,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,04; 25,84</t>
+          <t>0,0; 28,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,38</t>
+          <t>0,0; 19,51</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,73</t>
+          <t>0,0; 29,79</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>10,28; 25,96</t>
+          <t>9,75; 25,13</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,89; 18,32</t>
+          <t>1,88; 16,85</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,04</t>
+          <t>0,0; 14,17</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,06</t>
+          <t>0,0; 21,07</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>10,24; 21,89</t>
+          <t>10,0; 22,24</t>
         </is>
       </c>
     </row>
@@ -1849,57 +1850,57 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,85; 20,26</t>
+          <t>5,28; 20,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,18; 13,04</t>
+          <t>2,28; 13,61</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>15,47; 29,1</t>
+          <t>15,82; 28,69</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,41; 13,87</t>
+          <t>3,15; 13,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>14,51; 25,81</t>
+          <t>14,74; 26,28</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,06; 12,22</t>
+          <t>3,52; 12,62</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>24,12; 31,79</t>
+          <t>23,79; 31,52</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,62; 9,73</t>
+          <t>1,59; 8,99</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>13,3; 23,07</t>
+          <t>13,32; 22,17</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>3,67; 10,29</t>
+          <t>3,65; 10,07</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>22,72; 29,35</t>
+          <t>22,5; 29,15</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda los Servicios Sociales cuando tiene dificultades en la actividades básicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1603</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6519</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3176</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>6519</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2814</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3947</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1276</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1639</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4144</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3250</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1366</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3130; 11928</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6179</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1203; 5758</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1564</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3189; 11933</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>754; 7725</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1719; 7245</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2488</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>6679</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1336</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>9468</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6679</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1336</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>11956</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1599</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2194</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1449</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>812; 5963</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1854</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3241; 13141</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5609</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5986; 14022</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1865</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2733; 12211</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5370</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>7993; 17136</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5855</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7630</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>10204</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>7630</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>16058</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1303</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1923</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1397</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3244; 9495</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1778</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3321; 11911</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2236</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6603; 14147</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1797</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3368; 13279</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1986</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>11738; 21289</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1804</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2053</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3259</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3310</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1285</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7951</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>3259</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>3310</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>3089</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>10004</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1146</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1802</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4701</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>603; 4723</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1055; 7608</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1011; 7736</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6026</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5332; 10500</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1057; 6685</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1018; 8674</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>832; 8554</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>6967; 13927</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3414</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2980</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5192</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2295</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>6092</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>8606</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2295</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>9073</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1309</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1119; 5680</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 616</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1420; 4980</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1854</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2045; 10330</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5887</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3895; 8667</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1783</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4425; 14487</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6569</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>6160; 12335</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>4276</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2064</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>5233</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>11003</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>9509</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>13066</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1336</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1073; 7492</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1458</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>792; 4513</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1976</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2071; 10536</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2329</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>8031; 14187</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1920</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>5178; 15009</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2025</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>9530; 16904</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1125</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>3542</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>5207</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>4174</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>11330</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>6332</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>4174</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>14872</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1370</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5478</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1894</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>864; 6895</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1433</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1864; 10551</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1219; 11079</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>7262; 16751</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1561</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>2941; 12756</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1218; 11145</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>10399; 20255</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>809</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>2421</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>3265</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1077</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1342</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>9750</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>3265</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1077</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>2151</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>12171</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1660</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2066</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 4106</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>604; 5334</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>0; 8476</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>0; 5866</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>0; 6781</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>5590; 14406</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>923; 8282</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>0; 5520</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>0; 6713</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>7814; 17374</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>8815</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>4216</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>22173</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>6524</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>40846</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>11643</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>68974</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>6524</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>49661</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>15859</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>91148</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>0; 1710</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>4144; 16088</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1641; 9814</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>16150; 29283</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>2942; 12902</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>30252; 53940</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>6053; 21681</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>59722; 79133</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>2256; 12751</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>37799; 62918</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>8909; 24568</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>79430; 102926</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>